--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.001649595766180591</v>
+        <v>0.05299063594014523</v>
       </c>
       <c r="E2">
-        <v>0.001649595766180591</v>
+        <v>0.05299063594014523</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.362890714296458E-10</v>
+        <v>5.106535728109117E-12</v>
       </c>
       <c r="E3">
-        <v>6.362890714296458E-10</v>
+        <v>5.106535728109117E-12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.314335642397134E-31</v>
+        <v>2.342648270598597E-36</v>
       </c>
       <c r="E4">
-        <v>1.314335642397134E-31</v>
+        <v>2.342648270598597E-36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.695983395459721E-29</v>
+        <v>3.523455761489043E-21</v>
       </c>
       <c r="E5">
-        <v>3.695983395459721E-29</v>
+        <v>3.523455761489043E-21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999663006511</v>
+        <v>0.9962727436981004</v>
       </c>
       <c r="E6">
-        <v>0.9999999663006511</v>
+        <v>0.9962727436981004</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.367717771941641E-07</v>
+        <v>2.923365786261555E-07</v>
       </c>
       <c r="E7">
-        <v>0.9999995632282228</v>
+        <v>0.9999997076634214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9997262468478253</v>
+        <v>0.892556217393733</v>
       </c>
       <c r="E9">
-        <v>0.000273753152174705</v>
+        <v>0.107443782606267</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.683383233281495E-07</v>
+        <v>0.0002368230540009561</v>
       </c>
       <c r="E10">
-        <v>0.9999993316616766</v>
+        <v>0.999763176945999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.63637870141448E-05</v>
+        <v>4.657609661329626E-10</v>
       </c>
       <c r="E11">
-        <v>0.9999836362129858</v>
+        <v>0.999999999534239</v>
       </c>
       <c r="F11">
-        <v>5.709048271179199</v>
+        <v>5.06411075592041</v>
       </c>
       <c r="G11">
         <v>0.6</v>
